--- a/medicine/Enfance/Dhan_Gopal_Mukerji/Dhan_Gopal_Mukerji.xlsx
+++ b/medicine/Enfance/Dhan_Gopal_Mukerji/Dhan_Gopal_Mukerji.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dhan Gopal Mukerji (bengali : ধন গোপাল মুখোপাধ্যায় Dhan Gōpāl Mukhōpādhyāy), né le 6 juillet 1890 et mort le 14 juillet 1936, est le premier écrivain indien à connaître le succès aux États-Unis, et à recevoir la médaille Newbery. Il a étudié à l'université de Calcutta, à l'université de Tōkyō, à l'université de Californie à Berkeley, et à l'université Stanford.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dhan Gopal Mukerji naît au sein de la caste des brahmanes dans un village proche de Calcutta, au sommet d'une jungle nommée Kajangal. son père est un avocat qui a dû abandonner son travail en raison de sa mauvaise santé, et qui étudie la musique tout en officiant comme prêtre au temple du village. Mukerji décrit son enfance et son adolescence dans la première partie de son autobiographie Brahmane et Paria (Caste and Outcast, 1923). Il y raconte son intégration dans la caste des brahmanes et sa vie d'ascèse, comme il est de tradition pour les garçons dans les foyers de stricte obédience. Cependant, déçu par le rôle traditionnel qui l'attend, et agacé par les aspects rétrogrades de la société hindoue, il abandonne l'ascétisme pour étudier à l'université de Calcutta. Dans le cercle d'amis de son frère Jadu Gopal Mukerji, il entre en contact avec les idées de la résistance du Bengale. Jadu Gopal est alors emprisonné sans procès de 1923 à 1927. Dhan Gopal écrit plus tard un livre sur son frère, intitulé My Brother's Face.
 En 1910, espérant sauver son jeune frère de l'action de la police, leur famille envoie Dhan Gopal au Japon pour étudier la machinerie industrielle. D'abord fasciné par l'esprit positiviste de l'industrialisation, il devient profondément désabusé devant la méthode de production à la chaîne et la recherche de rendement pur qu'il voit comme déshumanisantes et dégradantes. Il est particulièrement choqué par le remplacement rapide des travailleurs gravement blessés par d'autres, sans considération de la part des employeurs ou des gérants de l'usine pour leur rétablissement, leurs frais médicaux ou pour des compensations financières. Après un court séjour au Japon, il fait voile vers San Francisco.
@@ -548,7 +562,9 @@
           <t>Œuvres traduites</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Brahmane et Paria, Les Presses modernes, 1928.
 Le Visage de mon frère, Stock, 1929.
@@ -586,7 +602,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « Dhan Gopal Mukerji » (voir la liste des auteurs).
  Portail de la littérature   Portail de l’Inde   Portail de la littérature d’enfance et de jeunesse                   </t>
